--- a/biology/Botanique/Adam_Dietrich/Adam_Dietrich.xlsx
+++ b/biology/Botanique/Adam_Dietrich/Adam_Dietrich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adam Dietrich est un botaniste allemand, né le 4 novembre 1711 à Ziegenhain et mort le 11 juillet 1782[1] dans cette même ville.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adam Dietrich est un botaniste allemand, né le 4 novembre 1711 à Ziegenhain et mort le 11 juillet 1782 dans cette même ville.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Alomo Dietrich et d’Anna née Röders. Il se marie avec Anna Katherine Huber en 1734, union dont naîtra trois fils et deux filles.
 C’est probablement son beau-père qui l’initie à la botanique et acquiert bientôt un vaste savoir sur les plantes de sa région. Agriculteur, il rencontre en 1742 Albrecht von Haller (1708-1777) avec qui il collabore à la rédaction de la mise à jour de Flora Jenensis d’Heinrich Bernhard Rupp (1688-1719) en 1745.
@@ -544,7 +558,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Allen G. Debus (dir.) (1968) cite le 10 juillet.
@@ -576,7 +592,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Ce texte utilise des extraits de l'article de langue allemande de Wikipédia (version du 10 mars 2006).</t>
